--- a/数据整理/stocks/A股/科创板/689009-九号公司.xlsx
+++ b/数据整理/stocks/A股/科创板/689009-九号公司.xlsx
@@ -451,743 +451,1003 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8581</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7275</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003956</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方现代教育股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6895</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4747</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1397</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005961</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时量化价值股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005960</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时量化价值股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>005177</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>华夏睿磐泰利混合A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>20.34</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1.09</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001122</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华弘利灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>62.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009545</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时鑫荣稳健混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>21.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>512090</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达MSCI中国A股国际通ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>41.14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003950</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时鑫润灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>37.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003951</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时鑫润灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>37.20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>41.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004175</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>34.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004176</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>34.24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005635</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159815</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商中证浙江100ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>97.70</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009546</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时鑫荣稳健混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>21.99</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>005178</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>华夏睿磐泰利混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>20.34</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1.09</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>506005</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博时科创板三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>79.49</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001123</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华弘利灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005636</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>506006</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇添富科创板2年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>76.13</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005635</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>博时量化多策略股票A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>91.08</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005636</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博时量化多策略股票C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>91.08</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005960</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>博时量化价值股票A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>89.33</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005961</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>博时量化价值股票C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>89.33</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001122</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>鹏华弘利灵活配置混合 - A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>22.50</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001123</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>鹏华弘利灵活配置混合 - C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>22.50</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>003956</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>南方现代教育股票</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002581</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>招商丰凯灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>41.14</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>002582</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>招商丰凯灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>41.14</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>159815</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>招商中证浙江100ETF</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>97.70</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>159968</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>博时中证500ETF</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>512090</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>易方达MSCI中国A股国际通ETF</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>98.16</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>003950</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>博时鑫润灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>37.20</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>003951</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>博时鑫润灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>37.20</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>004175</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>博时鑫泰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>34.24</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>004176</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>博时鑫泰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>34.24</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>009545</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>博时鑫荣稳健混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>21.99</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>009546</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>博时鑫荣稳健混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>21.99</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>005434</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>鹏华睿投灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>62.97</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>007355</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>汇添富科技创新灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>92.91</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>007356</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>汇添富科技创新灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>92.91</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1197,7 +1457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1218,15 +1478,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1238,25 +1508,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003950</t>
+          <t>506006</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时鑫润灵活配置混合A</t>
+          <t>汇添富科创板2年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29.97</t>
+          <t>31.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>78.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6317</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1266,25 +1546,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003951</t>
+          <t>007355</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时鑫润灵活配置混合C</t>
+          <t>汇添富科技创新灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>29.97</t>
+          <t>19.03</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9762</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004175</t>
+          <t>000480</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时鑫泰灵活配置混合A</t>
+          <t>东方红新动力灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27.66</t>
+          <t>13.16</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6264</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004176</t>
+          <t>240001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时鑫泰灵活配置混合C</t>
+          <t>华宝宝康消费品混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>27.66</t>
+          <t>14.76</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>73.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4000</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004206</t>
+          <t>001564</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华商元亨灵活配置混合</t>
+          <t>东方红京东大数据灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>85.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3360</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1378,25 +1698,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007355</t>
+          <t>007356</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇添富科技创新灵活配置混合A</t>
+          <t>汇添富科技创新灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>88.82</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>5.13</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1770</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1406,25 +1736,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007356</t>
+          <t>001403</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇添富科技创新灵活配置混合C</t>
+          <t>招商国企改革主题混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>88.82</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1193</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1444,15 +1784,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>71.01</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>3.12</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005635</t>
+          <t>159968</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>博时量化多策略股票A</t>
+          <t>博时中证500ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>88.71</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005636</t>
+          <t>512090</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>博时量化多策略股票C</t>
+          <t>易方达MSCI中国A股国际通ETF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>88.71</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>97.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1518,25 +1888,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>240001</t>
+          <t>004206</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华宝宝康消费品混合</t>
+          <t>华商元亨灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>73.91</t>
+          <t>5.83</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>000480</t>
+          <t>003950</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>东方红新动力灵活配置混合</t>
+          <t>博时鑫润灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>86.14</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
+          <t>29.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1574,25 +1964,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>506006</t>
+          <t>003951</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>汇添富科创板2年定期开放混合</t>
+          <t>博时鑫润灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>78.78</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+          <t>29.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>512090</t>
+          <t>515130</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>易方达MSCI中国A股国际通ETF</t>
+          <t>博时沪深300ETF</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>97.86</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
+          <t>95.92</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001403</t>
+          <t>004175</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>招商国企改革主题混合</t>
+          <t>博时鑫泰灵活配置混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>84.84</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
+          <t>27.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>515130</t>
+          <t>005635</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>博时沪深300ETF</t>
+          <t>博时量化多策略股票A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>95.92</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1686,25 +2116,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001564</t>
+          <t>004176</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>东方红京东大数据灵活配置混合</t>
+          <t>博时鑫泰灵活配置混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>85.48</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
+          <t>27.66</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>001628</t>
+          <t>159815</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>招商体育文化休闲股票</t>
+          <t>招商中证浙江100ETF</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>87.30</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>2</v>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>159815</t>
+          <t>001628</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>招商中证浙江100ETF</t>
+          <t>招商体育文化休闲股票</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>96.56</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>3</v>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>159968</t>
+          <t>002152</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>博时中证500ETF</t>
+          <t>华宝核心优势灵活配置混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>92.54</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>002152</t>
+          <t>005636</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华宝核心优势灵活配置混合</t>
+          <t>博时量化多策略股票C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>85.58</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>10</v>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/689009-九号公司.xlsx
+++ b/数据整理/stocks/A股/科创板/689009-九号公司.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2303,4 +2304,782 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0120</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0871</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9462</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000480</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6889</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6823</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>240001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝宝康消费品混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>70.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5107</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001564</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3404</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2982</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011153</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>46.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2741</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1970</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003950</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时鑫润灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>31.84</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003951</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时鑫润灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>31.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004175</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.69</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004176</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>29.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002152</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>77.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011154</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>46.66</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/689009-九号公司.xlsx
+++ b/数据整理/stocks/A股/科创板/689009-九号公司.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3082,4 +3083,668 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9121</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8513</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8461</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000480</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6168</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>240001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝宝康消费品混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>70.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5666</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011153</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>66.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3640</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3239</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001564</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3057</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010515</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国天兴回报混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1503</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1353</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001088</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝国策导向混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004175</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004176</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002152</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010525</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国天兴回报混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011154</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>66.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/689009-九号公司.xlsx
+++ b/数据整理/stocks/A股/科创板/689009-九号公司.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3747,4 +3748,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/689009-九号公司.xlsx
+++ b/数据整理/stocks/A股/科创板/689009-九号公司.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3756,7 +3757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3767,17 +3768,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3787,14 +3808,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.28</v>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>81.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8865</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3803,14 +3846,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.4</v>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9805</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -3819,14 +3884,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>21</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.84</v>
+          <t>001112</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5521</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -3835,13 +3922,1101 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>000970</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红睿元三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4931</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>169101</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红睿丰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>47.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3753</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011042</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0378</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>33.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9677</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000480</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8674</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013004</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>73.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4736</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4621</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005765</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧明睿新常态混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4134</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001564</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3794</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3019</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2574</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>070022</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实领先成长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2540</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2257</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010371</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成成长进取混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1985</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1592</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1528</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010114</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1523</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>020015</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001811</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧明睿新常态混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>516560</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝养老ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>97.35</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011043</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013005</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>73.55</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>25</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/689009-九号公司.xlsx
+++ b/数据整理/stocks/A股/科创板/689009-九号公司.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4915,7 +4916,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4926,17 +4927,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4946,14 +4967,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.05</v>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>84.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5522</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -4962,14 +5005,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.28</v>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>69.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9195</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -4978,14 +5043,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>19</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.4</v>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>60.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5710</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -4994,14 +5081,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>21</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.84</v>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>55.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3115</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -5010,13 +5119,927 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>60.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3108</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>63.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9125</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>41.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7401</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>69.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6175</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001112</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>40.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3456</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000970</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红睿元三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>34.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2409</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>26.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2394</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>27.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>71.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6416</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.37</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6332</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000480</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方红新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>72.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5629</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001564</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.40</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3591</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3312</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013004</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2734</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011042</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2559</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1629</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1266</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010114</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011043</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013005</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>25</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/689009-九号公司.xlsx
+++ b/数据整理/stocks/A股/科创板/689009-九号公司.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5922,7 +5923,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5933,17 +5934,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5953,14 +5974,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" t="n">
-        <v>26.4</v>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>96.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.8514</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -5969,14 +6012,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>29</v>
-      </c>
-      <c r="D3" t="n">
-        <v>16.05</v>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>72.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7373</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -5985,14 +6050,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.28</v>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>62.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1201</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -6001,14 +6088,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>19</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.4</v>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>60.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.9264</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -6017,14 +6126,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>21</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.84</v>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>52.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.7578</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -6033,13 +6164,677 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>45.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.3017</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>71.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.9888</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001112</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>42.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8360</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000970</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红睿元三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>36.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.6078</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>28.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1918</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8048</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000480</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4921</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4168</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001564</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>72.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3604</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1909</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>74.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>562500</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159770</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>562360</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>28.69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>19</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>21</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>25</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>4.9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/689009-九号公司.xlsx
+++ b/数据整理/stocks/A股/科创板/689009-九号公司.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>28.69</v>
+        <v>26.56</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>26.4</v>
+        <v>28.69</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>16.05</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
-        <v>6.28</v>
+        <v>16.05</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>7.4</v>
+        <v>6.28</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>4.84</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>21</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>25</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>4.9</v>
       </c>
     </row>
@@ -600,6 +617,1050 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1361</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8860</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>49.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7926</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>44.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.7698</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>66.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3837</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>36.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.1769</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014639</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>53.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.9042</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6536</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>55.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.6062</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000970</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红睿元三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>31.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>72.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0516</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8903</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7758</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4390</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3836</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009683</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3755</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000480</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方红新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3713</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001564</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>73.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2714</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004476</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深领先科技股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2321</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1950</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014640</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009684</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>562500</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159770</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天弘中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>562360</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银华中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>97.23</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001535</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>64.66</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007945</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>64.66</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1377,7 +2438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2383,7 +3444,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3541,7 +4602,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4205,7 +5266,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4983,7 +6044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5837,7 +6898,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/689009-九号公司.xlsx
+++ b/数据整理/stocks/A股/科创板/689009-九号公司.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>26.56</v>
+        <v>16.45</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>28.69</v>
+        <v>26.56</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>26.4</v>
+        <v>28.69</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>16.05</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
-        <v>6.28</v>
+        <v>16.05</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>7.4</v>
+        <v>6.28</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>4.84</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1036 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>21</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>25</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>4.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8581</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7275</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003956</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方现代教育股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6895</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4747</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1397</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005961</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时量化价值股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005960</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时量化价值股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005177</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏睿磐泰利混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001122</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华弘利灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>62.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009545</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时鑫荣稳健混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>21.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>512090</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达MSCI中国A股国际通ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>41.14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003950</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时鑫润灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>37.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003951</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时鑫润灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>37.20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>41.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004175</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>34.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004176</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时鑫泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>34.24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005635</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159815</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商中证浙江100ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>97.70</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009546</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时鑫荣稳健混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>21.99</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005178</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏睿磐泰利混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20.34</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001123</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华弘利灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005636</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1640,782 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7195</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011329</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5203</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3215</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2752</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8564</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011328</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城新能源产业股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4301</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014639</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>53.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3380</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5932</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000480</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3740</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3276</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001564</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>75.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2741</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000940</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1568</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1522</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014640</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0928</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>017493</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方红新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>76.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001535</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>43.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007945</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>43.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015690</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>017535</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>75.39</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1660,7 +3459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2438,7 +4237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3444,7 +5243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4602,7 +6401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5266,7 +7065,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6044,7 +7843,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6896,1010 +8695,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>506006</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富科创板2年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>33.60</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>76.13</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.8581</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>506005</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时科创板三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>27.98</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>79.49</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7275</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>003956</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方现代教育股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>13.01</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6895</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007355</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇添富科技创新灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>11.72</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.91</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4747</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007356</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇添富科技创新灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.91</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1397</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005961</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博时量化价值股票C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.73</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.33</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0888</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005960</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>博时量化价值股票A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5.63</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.33</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0873</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005177</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华夏睿磐泰利混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>7.06</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>20.34</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0770</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>159968</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>博时中证500ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>9.28</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0770</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001122</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>鹏华弘利灵活配置混合 - A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>6.55</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>22.50</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0766</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005434</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>鹏华睿投灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>62.97</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0766</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009545</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>博时鑫荣稳健混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>7.81</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>21.99</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0765</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>512090</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>易方达MSCI中国A股国际通ETF</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>6.52</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>98.16</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0750</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>002581</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>招商丰凯灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>41.14</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0653</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>003950</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>博时鑫润灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>37.20</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0595</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>003951</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>博时鑫润灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>37.20</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0508</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002582</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>招商丰凯灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>41.14</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0377</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>004175</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>博时鑫泰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>34.24</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0358</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>004176</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>博时鑫泰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>34.24</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0357</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>005635</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>博时量化多策略股票A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>91.08</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0353</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>159815</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>招商中证浙江100ETF</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>97.70</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0287</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>009546</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>博时鑫荣稳健混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>21.99</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0092</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>005178</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>华夏睿磐泰利混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>20.34</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0062</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>001123</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>鹏华弘利灵活配置混合 - C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>22.50</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0061</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>005636</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>博时量化多策略股票C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>91.08</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>